--- a/example_output/csv_data/HSTP_wind.xlsx
+++ b/example_output/csv_data/HSTP_wind.xlsx
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.234632</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.3771</v>
+        <v>6.1766</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.417661404184316</v>
+        <v>6.2847</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.417661404184316</v>
+        <v>6.3757</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.81315</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.94115</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>7.0113</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>7.093204709887928</v>
+        <v>6.873276000000001</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>7.093204709887928</v>
+        <v>7.0058</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>6.148284</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.315144</v>
+        <v>6.1795</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.417661404184316</v>
+        <v>6.2972</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.417661404184316</v>
+        <v>6.4121</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.773899999999999</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -8424,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.9317</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>7.0345</v>
+        <v>6.830762</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -8554,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>7.093204709887928</v>
+        <v>6.957697</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>7.093204709887928</v>
+        <v>7.047104</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>6.217508</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.396731999999999</v>
+        <v>6.2662</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.417661404184316</v>
+        <v>6.3838</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.8087</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -14766,7 +14766,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.938</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -14831,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>7.0493</v>
+        <v>6.84633</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -14896,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>7.093204709887928</v>
+        <v>7.003941999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>7.093204709887928</v>
+        <v>7.066104</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -20944,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>6.231158</v>
+        <v>6.153700000000001</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -21009,7 +21009,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.417661404184316</v>
+        <v>6.2892</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -21204,7 +21204,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.8364</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -21269,7 +21269,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>7.0085</v>
+        <v>6.885344</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -21334,7 +21334,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>7.093204709887928</v>
+        <v>7.024208000000001</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -27250,7 +27250,7 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>6.134106</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -27315,7 +27315,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>6.233009999999999</v>
+        <v>6.18275</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -27380,7 +27380,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.417661404184316</v>
+        <v>6.389</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -27445,7 +27445,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.7854</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -27510,7 +27510,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.8461</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -27575,7 +27575,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.9183</v>
+        <v>6.809672</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -27640,7 +27640,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>7.0452</v>
+        <v>6.956778</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -33578,7 +33578,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>6.196943999999999</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -33643,7 +33643,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.417661404184316</v>
+        <v>6.309950000000001</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -33773,7 +33773,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.8171</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -33838,7 +33838,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.8461</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -33903,7 +33903,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.98075</v>
+        <v>6.801851</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -33968,7 +33968,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>7.093204709887928</v>
+        <v>7.0616</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -39534,7 +39534,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6.180588</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -39599,7 +39599,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.322508</v>
+        <v>6.2136</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -39664,7 +39664,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.417661404184316</v>
+        <v>6.3504</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -39859,7 +39859,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.8781</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -39924,7 +39924,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.9921</v>
+        <v>6.886656</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -39989,7 +39989,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>7.04765</v>
+        <v>6.95474</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -40054,7 +40054,7 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>7.093204709887928</v>
+        <v>7.046490243855914</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -45183,7 +45183,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.236626</v>
+        <v>6.13815</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -45248,7 +45248,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.31822</v>
+        <v>6.2285</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -45313,7 +45313,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.378798</v>
+        <v>6.3211</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -45378,7 +45378,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.417661404184316</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -45573,7 +45573,7 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>6.8793</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -45638,7 +45638,7 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>6.9832</v>
+        <v>6.86982</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -45703,7 +45703,7 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>7.093204709887928</v>
+        <v>6.998527437772841</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -50911,7 +50911,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.24344</v>
+        <v>6.1447</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -50976,7 +50976,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.318212</v>
+        <v>6.2558</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.4005</v>
+        <v>6.3599</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -51366,7 +51366,7 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>6.9402</v>
+        <v>6.822156000000001</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -51431,7 +51431,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>7.03415</v>
+        <v>6.97771</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -51496,7 +51496,7 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>7.093204709887928</v>
+        <v>7.053795</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -56394,7 +56394,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.1858</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -56459,7 +56459,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.275539999999999</v>
+        <v>6.1955</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -56524,7 +56524,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.36404</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -56589,7 +56589,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.417661404184316</v>
+        <v>6.37505</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -56849,7 +56849,7 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>6.88325</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -56914,7 +56914,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>6.97925</v>
+        <v>6.88826</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -56979,7 +56979,7 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>7.064527619655371</v>
+        <v>6.990284022413692</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -57044,7 +57044,7 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>7.093204709887928</v>
+        <v>7.073555040636824</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -61875,7 +61875,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.187728000000001</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -61940,7 +61940,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.308628</v>
+        <v>6.24655</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -62005,7 +62005,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>6.417661404184316</v>
+        <v>6.358827391277695</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -62395,7 +62395,7 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>6.840224363517263</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -62460,7 +62460,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>6.90711803636365</v>
+        <v>6.824652172142002</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -62525,7 +62525,7 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>6.971619619162282</v>
+        <v>6.888862689544663</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -62590,7 +62590,7 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>7.034261273415986</v>
+        <v>6.951375078310891</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -62655,7 +62655,7 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <v>7.093204709887928</v>
+        <v>7.012764308233089</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -62720,7 +62720,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>7.093204709887928</v>
+        <v>7.073605349103663</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -67161,7 +67161,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>6.204912</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -67226,7 +67226,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6.312056</v>
+        <v>6.21585</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -67291,7 +67291,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.390284</v>
+        <v>6.3263</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -67356,7 +67356,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>6.417661404184316</v>
+        <v>6.39935</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -67616,7 +67616,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>6.9074</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -67681,7 +67681,7 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>7.058452344393936</v>
+        <v>6.939438328537795</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -67746,7 +67746,7 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>7.093204709887928</v>
+        <v>7.039263628647083</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -72905,7 +72905,7 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>6.244792</v>
+        <v>6.128577557148986</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -72970,7 +72970,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>6.34171</v>
+        <v>6.21565</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -73035,7 +73035,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>6.417661404184316</v>
+        <v>6.3385</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -73230,7 +73230,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>6.8508</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -73295,7 +73295,7 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>6.9182</v>
+        <v>6.7736909842173</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -73360,7 +73360,7 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>7.0126</v>
+        <v>6.876046</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -73425,7 +73425,7 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>7.091799999999999</v>
+        <v>6.962471</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -73490,7 +73490,7 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>7.093204709887928</v>
+        <v>7.07656</v>
       </c>
     </row>
     <row r="28" spans="1:21">
